--- a/Function Index.xlsx
+++ b/Function Index.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will and jaclyn\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="130" windowWidth="7620" windowHeight="3090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
   <si>
     <t>Function</t>
   </si>
@@ -304,12 +309,57 @@
   </si>
   <si>
     <t>Evaluate a function separately on different groups.</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Extract a variable from a data frame.</t>
+  </si>
+  <si>
+    <t>read.table()</t>
+  </si>
+  <si>
+    <t>Import a .txt file.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>library()</t>
+  </si>
+  <si>
+    <t>qplot()</t>
+  </si>
+  <si>
+    <t>Make a scatterplot using the ggplot2 package.</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>Activate a package (e.g. ggplot2, gmodels).</t>
+  </si>
+  <si>
+    <t>install.packages()</t>
+  </si>
+  <si>
+    <t>Download a package.</t>
+  </si>
+  <si>
+    <t>Get help with a function.</t>
+  </si>
+  <si>
+    <t>CrossTable()</t>
+  </si>
+  <si>
+    <t>Display a 2-way table using the gmodels package.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,8 +389,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,6 +403,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -398,7 +454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,9 +487,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,6 +539,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -641,564 +731,641 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="C6">
+      <c r="C9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="1">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="1">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:C47">
-    <sortCondition ref="A2:A47"/>
+  <sortState ref="A6:C9">
+    <sortCondition ref="C6:C9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
